--- a/RUDN/Importance/Varible_muatal_reg_in_Northern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Northern Europe.xlsx
@@ -49,16 +49,19 @@
     <t>Male population 35-39</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
@@ -70,24 +73,21 @@
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
@@ -121,24 +121,24 @@
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
@@ -151,213 +151,213 @@
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 10-14</t>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
     <t>Male population 20-24</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Population, total</t>
   </si>
   <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Population ages 00-14, total</t>
   </si>
   <si>
     <t>Female population 25-29</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
+    <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
@@ -367,67 +367,70 @@
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Population, male</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>Female population 15-19</t>
@@ -442,42 +445,39 @@
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -493,138 +493,138 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
@@ -676,33 +676,33 @@
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
@@ -712,27 +712,27 @@
     <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
@@ -742,15 +742,15 @@
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
@@ -760,6 +760,9 @@
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
@@ -769,7 +772,7 @@
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
+    <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
     <t>Population ages 20-24, female (% of female population)</t>
@@ -778,25 +781,25 @@
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Self-employed, total (% of total employment)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
+    <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Forest area (% of land area)</t>
@@ -811,9 +814,6 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
@@ -829,12 +829,12 @@
     <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
@@ -859,48 +859,48 @@
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
@@ -916,72 +916,72 @@
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
@@ -1051,15 +1051,15 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -1072,15 +1072,15 @@
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
@@ -1093,36 +1093,39 @@
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
   </si>
   <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
@@ -1132,9 +1135,6 @@
     <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
@@ -1147,36 +1147,36 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
@@ -1195,15 +1195,15 @@
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
@@ -1228,34 +1228,40 @@
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
@@ -1270,15 +1276,9 @@
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
@@ -1315,10 +1315,13 @@
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
@@ -1330,19 +1333,16 @@
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.705785775965899</v>
+        <v>1.704717399897522</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.676879001018535</v>
+        <v>1.673049283727279</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.653402777025307</v>
+        <v>1.654083980911639</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.531595149399728</v>
+        <v>1.531951274755853</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.200284749847779</v>
+        <v>1.199216373779403</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.096869173653062</v>
+        <v>1.098475927465698</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.09000765535832</v>
+        <v>1.09057745592812</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.055009339762713</v>
+        <v>1.057146091899465</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.040591683608132</v>
+        <v>1.042435959858211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.040351514551066</v>
+        <v>1.041161484177933</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.036210807792086</v>
+        <v>1.040012940207908</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.034345180080498</v>
+        <v>1.036173262092238</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.026225193785875</v>
+        <v>1.0360545817899</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.019606317503725</v>
+        <v>1.02667503634098</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.016711119538898</v>
+        <v>1.019606317503725</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.013555330690957</v>
+        <v>1.015264732400358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013497196662064</v>
+        <v>1.0145341499049</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.009954555191631</v>
+        <v>1.012931007328336</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.009954555191631</v>
+        <v>1.010025780262856</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.008459701946271</v>
+        <v>1.010025780262856</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9972647157127086</v>
+        <v>0.9974071658551584</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9870963575476845</v>
+        <v>0.9866488192142846</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.986977550312246</v>
+        <v>0.9865621695134967</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9840941931022966</v>
+        <v>0.9856967572048605</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9812943592647798</v>
+        <v>0.9818641598345801</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9799562782620757</v>
+        <v>0.9775511478412962</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9776173065251057</v>
+        <v>0.9773430709567528</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9769813472714959</v>
+        <v>0.9757951416672088</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9757951416672088</v>
+        <v>0.9756595214192783</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9756595214192783</v>
+        <v>0.9744007227065197</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.970973361081501</v>
+        <v>0.9731101132182531</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9701195502050282</v>
+        <v>0.9703569671091117</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.968331449368931</v>
+        <v>0.9683315282906801</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9682365615290465</v>
+        <v>0.968331449368931</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9597079283029459</v>
+        <v>0.9624028213456564</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9596962686391031</v>
+        <v>0.9613285042153685</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9589392030452997</v>
+        <v>0.9600984166320301</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9586219515088161</v>
+        <v>0.9589392030452997</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9567479054558992</v>
+        <v>0.9511711351935572</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9511711351935572</v>
+        <v>0.9500937898712416</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9499513397287913</v>
+        <v>0.948998760980913</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9489037942192797</v>
+        <v>0.9480305871738945</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9479356204122618</v>
+        <v>0.9469996666101439</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.9469996666101439</v>
+        <v>0.9464973010157198</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9464973010157198</v>
+        <v>0.945727078742701</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.945727078742701</v>
+        <v>0.9450107829609142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9450107829609142</v>
+        <v>0.9443839072742142</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9442725872368976</v>
+        <v>0.9440690870333972</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9438141067044139</v>
+        <v>0.9437038132430153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9437038132430153</v>
+        <v>0.9432578020809044</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9432578020809044</v>
+        <v>0.9426796651037548</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9426796651037548</v>
+        <v>0.9420899367855573</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9401655386654362</v>
+        <v>0.9401335016888295</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9401335016888295</v>
+        <v>0.9394851965002435</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9393475122068464</v>
+        <v>0.9393831247424589</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9389153959304433</v>
+        <v>0.9380339329326475</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9379389661710138</v>
+        <v>0.9374879530931137</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9350802299541296</v>
+        <v>0.935935453153971</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9348984999111352</v>
+        <v>0.934697538707205</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9346447825174282</v>
+        <v>0.9341789796504858</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.93432927275092</v>
+        <v>0.9340749819476279</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9341789796504858</v>
+        <v>0.9340355955761619</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9341277381374047</v>
+        <v>0.929751328632789</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.929751328632789</v>
+        <v>0.9297118292922613</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9291420287224605</v>
+        <v>0.928169038010203</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.928169038010203</v>
+        <v>0.9272193703938689</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9272193703938689</v>
+        <v>0.9268070167157099</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9269494668581597</v>
+        <v>0.9249364188768712</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9243666183070709</v>
+        <v>0.9241725979945814</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9236027974247802</v>
+        <v>0.923703474456294</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9231336738864928</v>
+        <v>0.919841438342035</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9200276118783788</v>
+        <v>0.9194397686540343</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9199739566882221</v>
+        <v>0.918921466616291</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9194556546504788</v>
+        <v>0.9184564706013552</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9169924354930323</v>
+        <v>0.9155163416291829</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9159911754373504</v>
+        <v>0.9145595289403814</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9145500067768464</v>
+        <v>0.9134241153200282</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9141096863852756</v>
+        <v>0.9132538876472389</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9140426488332984</v>
+        <v>0.9132098794180914</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9132538876472389</v>
+        <v>0.9101799105696182</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9132098794180914</v>
+        <v>0.9097126543965652</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9095151432381838</v>
+        <v>0.9092387704183227</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9091428538267645</v>
+        <v>0.9090551922006416</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9085265197060721</v>
+        <v>0.907539648782242</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9084853916308409</v>
+        <v>0.907009319445137</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9080738368164298</v>
+        <v>0.9060432188321372</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.907009319445137</v>
+        <v>0.9048184044789092</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9046574000703216</v>
+        <v>0.9032175419808635</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9032175419808635</v>
+        <v>0.9026365415596938</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9020189512968111</v>
+        <v>0.901901618291916</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.901901618291916</v>
+        <v>0.9015203757982357</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.8995146269541086</v>
+        <v>0.8990397931459415</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8979066226946602</v>
+        <v>0.8980041316972724</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.8974343311274717</v>
+        <v>0.8979066226946602</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8944696145075013</v>
+        <v>0.8968533690971383</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8942987843341501</v>
+        <v>0.89505918551738</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8934524317047439</v>
+        <v>0.8942987843341501</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8903242639837055</v>
+        <v>0.8896013578199771</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8888077070263263</v>
+        <v>0.8873659258744384</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8876885830118426</v>
+        <v>0.8872392187124063</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8848086489877831</v>
+        <v>0.8855208997000341</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8835139033363046</v>
+        <v>0.8846077371416601</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8834332407507954</v>
+        <v>0.8835139033363046</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8808218353165427</v>
+        <v>0.8788378908241157</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8803004995057329</v>
+        <v>0.8781874117014694</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8778009375812803</v>
+        <v>0.8780212972265304</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8760022793102196</v>
+        <v>0.8737230770310176</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.871645208167128</v>
+        <v>0.8718158464183179</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8702981508965904</v>
+        <v>0.8705768320987519</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8692105332013704</v>
+        <v>0.8693869868478989</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8690854466665137</v>
+        <v>0.8691238818593994</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8688171862780982</v>
+        <v>0.8690559018602237</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8678831031874283</v>
+        <v>0.8686580962391632</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8672438851453141</v>
+        <v>0.8676418349361672</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8669475544585223</v>
+        <v>0.8655956329595518</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8650258323897506</v>
+        <v>0.8612112259329168</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8612112259329168</v>
+        <v>0.8609165700157302</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8595899208087654</v>
+        <v>0.8607135945294164</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8574413499674756</v>
+        <v>0.857310718529563</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8523907043775631</v>
+        <v>0.8568715493976748</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8509408854861946</v>
+        <v>0.8523907043775631</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8507664363574245</v>
+        <v>0.8515106860559949</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8486465140760231</v>
+        <v>0.849429989859499</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8474852740194505</v>
+        <v>0.8466051523929687</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8460353518231676</v>
+        <v>0.846501243430156</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8413616920827445</v>
+        <v>0.8415041422251948</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8408260888365611</v>
+        <v>0.8409210555981947</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.8397766118000503</v>
+        <v>0.8391119820501056</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8396461700842939</v>
+        <v>0.8389943741626165</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.8388803246801002</v>
+        <v>0.836988815634788</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8377372409687087</v>
+        <v>0.8369276089510476</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8375419413376348</v>
+        <v>0.8360313218310971</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.836988815634788</v>
+        <v>0.8314752989487819</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8259311389209398</v>
+        <v>0.8227637140353536</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.8199743565182223</v>
+        <v>0.8198543985035274</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.8177740815953003</v>
+        <v>0.8141071769606678</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8141071769606678</v>
+        <v>0.8099390834824463</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8106237545618544</v>
+        <v>0.8076189252037049</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.8045792751505059</v>
+        <v>0.8071777835747693</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8036078290873458</v>
+        <v>0.8037071073849753</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.800083559450282</v>
+        <v>0.8004716524917543</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.8000443020644044</v>
+        <v>0.7993204084023553</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.7990290331109806</v>
+        <v>0.7945574392458998</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.7974064420949025</v>
+        <v>0.790747501428422</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.7914597521406725</v>
+        <v>0.7895910830468811</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.790196247480734</v>
+        <v>0.7844811319855389</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.7844811319855389</v>
+        <v>0.7829167565429476</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.7787450202358501</v>
+        <v>0.7797819734786859</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.777228049778524</v>
+        <v>0.7767296960234784</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.7767461283928525</v>
+        <v>0.7764239967853346</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.7755285958899338</v>
+        <v>0.7758166687618795</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.7743794022401511</v>
+        <v>0.77440787355189</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.7733115660830334</v>
+        <v>0.7743794022401511</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.770590988125003</v>
+        <v>0.7712005909404884</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.7702636663107287</v>
+        <v>0.7699980661113228</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.7701788016587736</v>
+        <v>0.7689456612229093</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.7696928158060721</v>
+        <v>0.7683625623425341</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.7631590663314394</v>
+        <v>0.7636949546535585</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.7631251540837583</v>
+        <v>0.7626248782972516</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.7625769562540849</v>
+        <v>0.7602570539341826</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.7625211261440032</v>
+        <v>0.7568468605865526</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.7607539179239562</v>
+        <v>0.7550997430390121</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.7533241958939758</v>
+        <v>0.7543611491368112</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.7473579356722326</v>
+        <v>0.7460992658379388</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.7465978413365146</v>
+        <v>0.7419855302998268</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.7417087948409526</v>
+        <v>0.741251749214479</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.741251749214479</v>
+        <v>0.7403085947091483</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.7411632955638487</v>
+        <v>0.7373129554807774</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.7379539811218034</v>
+        <v>0.7341143533973389</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.7340787408617264</v>
+        <v>0.7324607997118608</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.7188080696471402</v>
+        <v>0.7183642826648913</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.7141091248795282</v>
+        <v>0.7101770112385721</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.7107111992727604</v>
+        <v>0.7072339156528971</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7048668172673822</v>
+        <v>0.7054366178371829</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.704255110779435</v>
+        <v>0.7011805696530184</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.7016554034611855</v>
+        <v>0.6938402416865233</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6931323748441414</v>
+        <v>0.6934475360089092</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6900007665073256</v>
+        <v>0.691737101272893</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6896003491361409</v>
+        <v>0.6905943087675346</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.6869485432283531</v>
+        <v>0.688320121999312</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.6828768008566009</v>
+        <v>0.6814404285868951</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6813956284196188</v>
+        <v>0.6809886280126181</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.677392537703811</v>
+        <v>0.6793567181404039</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6759454076897948</v>
+        <v>0.6779267257379988</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6758841785160472</v>
+        <v>0.6774909323286833</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.6704404541246642</v>
+        <v>0.6708678045520156</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6688155485579097</v>
+        <v>0.66938534912771</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6675996045046908</v>
+        <v>0.6681694050744911</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.6668400045062124</v>
+        <v>0.6677814141432741</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6612078788032583</v>
+        <v>0.6656809988951076</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6600653801360723</v>
+        <v>0.6594955795662716</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6567382497090071</v>
+        <v>0.6579592509300078</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6543976857875302</v>
+        <v>0.6539478432324239</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6520195284423234</v>
+        <v>0.6511382160225496</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6504104127606625</v>
+        <v>0.6499830623333125</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6458559264853876</v>
+        <v>0.6459708972171958</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6443920748050398</v>
+        <v>0.6458559264853876</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.6414690494014028</v>
+        <v>0.6423237502561032</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.6391162158959607</v>
+        <v>0.6369414254525134</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.6378436096880313</v>
+        <v>0.6364760397607032</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6245633129697761</v>
+        <v>0.6254232254150547</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.6233538573888788</v>
+        <v>0.6250892691525975</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.6229525170158454</v>
+        <v>0.6233538573888788</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.6208589888416878</v>
+        <v>0.622323292511874</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.6207249477422132</v>
+        <v>0.6204083918701015</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.6189459887183886</v>
+        <v>0.6190107387831385</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.6123763972471115</v>
+        <v>0.6080206266504753</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6078781765080254</v>
+        <v>0.6075143720065492</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.606279804105315</v>
+        <v>0.6060502027776731</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.6006279070327962</v>
+        <v>0.6034029226866808</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5989276956551661</v>
+        <v>0.6027263661205029</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5957577949410759</v>
+        <v>0.5963275955108767</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5926948593293477</v>
+        <v>0.5926948593293482</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.591843004920372</v>
+        <v>0.5924128054901727</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5906572268446597</v>
+        <v>0.5910321274687562</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5893063079322243</v>
+        <v>0.5898802260676583</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5892455153880269</v>
+        <v>0.5891303401091976</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5864274178127076</v>
+        <v>0.5869972183825083</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5790453022800395</v>
+        <v>0.5786686748569618</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5741768577533994</v>
+        <v>0.5730843451332608</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5735034775196812</v>
+        <v>0.5730109212933452</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.5721407879931042</v>
+        <v>0.5728197168359204</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5719803565292718</v>
+        <v>0.57216328012086</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5637020056992745</v>
+        <v>0.5646881053817796</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5632655688095234</v>
+        <v>0.5634349116821804</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5629856723871747</v>
+        <v>0.5613818446234737</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.5597456658797288</v>
+        <v>0.5599000651251167</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5597077574328093</v>
+        <v>0.5589686651027284</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.5544577439251406</v>
+        <v>0.5542074995328057</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5538297745936771</v>
+        <v>0.5535253429927398</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5496075393244095</v>
+        <v>0.5494627869772333</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5494627869772333</v>
+        <v>0.5491801888970596</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.5442071508821207</v>
+        <v>0.5450731649071656</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.5422355692110714</v>
+        <v>0.5447769514519214</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5392721912695895</v>
+        <v>0.5422355692110714</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5346752228206881</v>
+        <v>0.5384951904925885</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5245703923339966</v>
+        <v>0.5351250653757935</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5228026329811652</v>
+        <v>0.5233287272572595</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5202752363693266</v>
+        <v>0.5197410483351388</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.5183856763267887</v>
+        <v>0.5179583258994382</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4971657492728743</v>
+        <v>0.4963110484181734</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4956958584785309</v>
+        <v>0.4957480078593277</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4947887546941923</v>
+        <v>0.4898883273086807</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4803596698222297</v>
+        <v>0.4798848360140626</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4801388922792271</v>
+        <v>0.4778569800267181</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4755787130209295</v>
+        <v>0.4751038792127624</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4650331162835362</v>
+        <v>0.4640834486672021</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4382664210288181</v>
+        <v>0.4377333576010178</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4382189064704956</v>
+        <v>0.4365189502317759</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4370579372889254</v>
+        <v>0.4360443497368762</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4356960290384728</v>
+        <v>0.4358669692094128</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4348095485223751</v>
+        <v>0.4318707008543345</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4302211407217462</v>
+        <v>0.4301314719530263</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4290022045687749</v>
+        <v>0.4192077881182952</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4184955374060442</v>
+        <v>0.4175274468613024</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4169576462915017</v>
+        <v>0.4123683742541941</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4123683742541941</v>
+        <v>0.4107580125041759</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4100938540691641</v>
+        <v>0.4054452229941679</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4100679668770186</v>
+        <v>0.3983079390729456</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3987847823053259</v>
+        <v>0.3981225693276236</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3983079390729456</v>
+        <v>0.3966435849748278</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3956192187802068</v>
+        <v>0.3962958569568449</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3903567710703264</v>
+        <v>0.3893952326087873</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3772976399643713</v>
+        <v>0.3769682784518329</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3757167522003066</v>
+        <v>0.3769682784518329</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3757167522003066</v>
+        <v>0.3761614004134977</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3726727465866857</v>
+        <v>0.3685487974525739</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.368519213561628</v>
+        <v>0.368177333219748</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3684628913158159</v>
+        <v>0.3654268725606697</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.365205629047203</v>
+        <v>0.3624663367212686</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3648398527428811</v>
+        <v>0.3623993600551434</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3634677361235195</v>
+        <v>0.3622509511209151</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3612070232455395</v>
+        <v>0.3594249242271974</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3604933002955735</v>
+        <v>0.3507994459581207</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3479008413149289</v>
+        <v>0.3403630976646297</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3411962119365981</v>
+        <v>0.3398836356240222</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3403630976646297</v>
+        <v>0.3296399534201058</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3384009567272828</v>
+        <v>0.327612809782055</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3275075877252465</v>
+        <v>0.3250511223585231</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3272613702858784</v>
+        <v>0.3248879592577429</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3238633792262569</v>
+        <v>0.3123853737514799</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3132056361102045</v>
+        <v>0.30290205305851</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3018585972044598</v>
+        <v>0.3005817575129859</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2963201282483512</v>
+        <v>0.2949615449289831</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.2887518125763173</v>
+        <v>0.288204504134272</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2810005537375995</v>
+        <v>0.2815703543073993</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2806519882268632</v>
+        <v>0.2799933259015344</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2753817858082885</v>
+        <v>0.274669535096038</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2750769986210837</v>
+        <v>0.2741337383452447</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2576525181174592</v>
+        <v>0.2587208941858352</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2499890116289543</v>
+        <v>0.2515601529059779</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2462254308283167</v>
+        <v>0.2473526915566169</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.241390248926689</v>
+        <v>0.2424586249950651</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2320096226815278</v>
+        <v>0.2311297412460904</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2215206034834578</v>
+        <v>0.2223299792928342</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2069099158600536</v>
+        <v>0.2067027156528529</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2047143424793396</v>
+        <v>0.2048067265371376</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2027911495215613</v>
+        <v>0.2040264024014995</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1944936740359098</v>
+        <v>0.2040015948680387</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1939626078456897</v>
+        <v>0.1948261366933042</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1803062121952685</v>
+        <v>0.1799064715581917</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1754665847475205</v>
+        <v>0.1765757733051434</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1704778426458089</v>
+        <v>0.1754665847475205</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1681039669755604</v>
+        <v>0.1691723430439365</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.167700691252135</v>
+        <v>0.1674971910486351</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1657785471078714</v>
+        <v>0.1639581920708966</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.159755107832577</v>
+        <v>0.1613932844707535</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.152802124207005</v>
+        <v>0.1524252265218151</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1513568504534391</v>
+        <v>0.1506006220055029</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1511075266863413</v>
+        <v>0.1458782738462103</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.148371033074552</v>
+        <v>0.1455220302255491</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1480797760477128</v>
+        <v>0.1421274868077598</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1421274868077598</v>
+        <v>0.1388904527192745</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1346996172864792</v>
+        <v>0.1335211641280771</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1335211641280771</v>
+        <v>0.1327053152921773</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1298109887821577</v>
+        <v>0.1297246553624911</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1268847842399488</v>
+        <v>0.1290215363767009</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1225982436545834</v>
+        <v>0.1227007251625529</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1172843773350412</v>
+        <v>0.1144353744860389</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1156702540167509</v>
+        <v>0.1134691442053724</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1134691442053724</v>
+        <v>0.1115823418445008</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1117374040072312</v>
+        <v>0.1088840990741593</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1025354097718678</v>
+        <v>0.09966373227472225</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.09619323633395949</v>
+        <v>0.09651531905439326</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.09561022340965497</v>
+        <v>0.09636417650489948</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.0939328591768005</v>
+        <v>0.09500123524517656</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.08219816302310368</v>
+        <v>0.08326653909147974</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.08185963444928057</v>
+        <v>0.08292801051765664</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.08185963444928057</v>
+        <v>0.08292801051765664</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.08185963444928057</v>
+        <v>0.08292801051765664</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.08185963444928057</v>
+        <v>0.08292801051765664</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.07951280794818993</v>
+        <v>0.08028895724859453</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.07805801773336296</v>
+        <v>0.07795746469163345</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.07281665294500095</v>
+        <v>0.07379919077726371</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.07218405743288714</v>
+        <v>0.0732524335012632</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.07217830444580842</v>
+        <v>0.07272325608874231</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.07078261413014197</v>
+        <v>0.07185099019851804</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.06783888499840929</v>
+        <v>0.06865230047953697</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.0675839244111609</v>
+        <v>0.0676377614739736</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.06562965190100067</v>
+        <v>0.06311434468200638</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.06164179937516279</v>
+        <v>0.06272681364702004</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.06127964724308432</v>
+        <v>0.0615076765581164</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.06088587038075399</v>
+        <v>0.05916899663461872</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.05810062056624266</v>
+        <v>0.05755164894898046</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.05557740225878449</v>
+        <v>0.05652364903413054</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.05545689910893281</v>
+        <v>0.05557740225878449</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.05508984685553653</v>
+        <v>0.05479512242288109</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.04853269791956594</v>
+        <v>0.05404158402606818</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.04842716786286072</v>
+        <v>0.05240386074798709</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.04686242265569041</v>
+        <v>0.04975102150631017</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.04655850723398114</v>
+        <v>0.04842716786286072</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.04255563564731668</v>
+        <v>0.04793079872406647</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.0415472371408343</v>
+        <v>0.04655850723398114</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.04060811450388302</v>
+        <v>0.0415472371408343</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.03997233115673704</v>
+        <v>0.03996698649271546</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.02773089177039156</v>
+        <v>0.02701193488529208</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.02720082481777231</v>
+        <v>0.0266625157020155</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.0262210230162272</v>
+        <v>0.02597333361162968</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.02564156480965041</v>
+        <v>0.02515264694785113</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.02564156480965041</v>
+        <v>0.02457318874127434</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.02490495754325361</v>
+        <v>0.02457318874127434</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.02195483301887124</v>
+        <v>0.02302320908724731</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.006099469411789293</v>
+        <v>0.006361130694559236</v>
       </c>
     </row>
     <row r="448" spans="1:2">
